--- a/Biogeochem_DE.xlsx
+++ b/Biogeochem_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/EastCoast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FD7E8F-EB02-0242-B169-005C9D032A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEECBF6-63A3-1141-A648-2752D0846DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="220">
   <si>
     <t>Field Marsh Organ Study</t>
   </si>
@@ -706,6 +706,12 @@
   </si>
   <si>
     <t>Formatted sheet was exported to "Biogeochem_clean_wID_DE.csv"</t>
+  </si>
+  <si>
+    <t>d1_Stw_F_e40_2</t>
+  </si>
+  <si>
+    <t>d2_Stw_F_e40_2</t>
   </si>
 </sst>
 </file>
@@ -5564,9 +5570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1370B1C3-0CDE-0444-A2D3-70D17C32F327}">
   <dimension ref="A1:AG73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC61" sqref="AC61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5918,7 +5924,7 @@
         <v>151.24851884280761</v>
       </c>
       <c r="AF3" s="21">
-        <f t="shared" ref="AF3:AF66" si="7">AE3*16.04</f>
+        <f t="shared" ref="AF3:AF57" si="7">AE3*16.04</f>
         <v>2426.026242238634</v>
       </c>
       <c r="AG3" s="21">
@@ -10523,7 +10529,7 @@
         <v>140</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L46" s="28" t="s">
         <v>79</v>
@@ -10632,7 +10638,7 @@
         <v>140</v>
       </c>
       <c r="K47" s="25" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L47" s="28" t="s">
         <v>80</v>
